--- a/baitap_project_ST6.xlsx
+++ b/baitap_project_ST6.xlsx
@@ -1,50 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam3HK2\LapTrinhDiDong\KiemTraGiuaKy\KiemTraAndroidSangT6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
     <sheet name="Bang_Phan_Cong_Nhiem_Vu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Yêu cầu: Nhóm tối thiểu 5 và tối đa 10 thanh viên tự chọn, Phân công nhiệm vụ mỗi thành viên vào sheet "Bang_Phan_Cong_Nhiem_Vu" và phối hợp hoàn thành thử thách bên dưới. Nhóm trưởng tạo 01 Repository trên github để chứa project (API &amp; APP) và add các thành viên nhóm vào, mỗi thành viên phải comment code của mình và commit lên nhánh của mình trong project. Trưởng nhóm sẽ merge lại trên nhóm chính. Giao diện bài tập chỉ là mẫu, các nhóm chọn dữ liệu riêng của mỗi nhóm. Chụp giao diện của nhóm bỏ vào Readme trên github. </t>
+  </si>
+  <si>
+    <t>1. Kích vào nút "Bắt đầu" của Trang Intro (tùy mỗi nhóm sẽ khác nhau) để chuyển qua trang login, nếu đã login rồi thì chuyển đến trang Main. Nếu chưa có tài khoản thì thực hiện chức năng Register</t>
+  </si>
+  <si>
+    <t>2. Xây dựng UI cho chức năng đăng ký người dùng có kích hoạt bằng OTP (6 số), kích hoạt thành công quay về trang login</t>
+  </si>
+  <si>
+    <t>3. Xây dựng UI cho chức năng đăng nhập người dùng. Đăng nhập username và password để vào trang Main</t>
+  </si>
+  <si>
+    <t>4. Xây dựng Trang main lấy thông tin người dùng đã đăng nhập hiển thị phần phía trên như hình.</t>
+  </si>
+  <si>
+    <t>5. Xây dựng chức năng lấy tất cả Category theo chiều ngang với API ở câu 7</t>
+  </si>
+  <si>
+    <t>6. Xây dựng chức năng lấy tất cả sản phẩm theo từng category được sắp xếp tăng dần theo giá bán hiển thị dạng lưới (có lazy loading khi kéo xuống cuối màn hình)  với API bên dưới</t>
+  </si>
+  <si>
+    <t>7. Viết các API sau với Database (Các nhóm tự chọn database riêng tương ứng):</t>
+  </si>
   <si>
     <t>API All category</t>
   </si>
   <si>
+    <t>API product by category</t>
+  </si>
+  <si>
     <t>API cho Register, Login</t>
   </si>
   <si>
     <t>Code bottom navigation mẫu được đính kèm</t>
   </si>
   <si>
-    <t>3. Xây dựng UI cho chức năng đăng nhập người dùng. Đăng nhập username và password để vào trang Main</t>
-  </si>
-  <si>
-    <t>4. Xây dựng Trang main lấy thông tin người dùng đã đăng nhập hiển thị phần phía trên như hình.</t>
-  </si>
-  <si>
     <t>Tên Nhóm</t>
   </si>
   <si>
+    <t>Link github:</t>
+  </si>
+  <si>
+    <t>https://github.com/AKhoa2109/KiemTraAndroidSangT6.git</t>
+  </si>
+  <si>
     <t>STT</t>
   </si>
   <si>
@@ -57,30 +87,6 @@
     <t>Nhiệm vụ</t>
   </si>
   <si>
-    <t>Link github:</t>
-  </si>
-  <si>
-    <t>2. Xây dựng UI cho chức năng đăng ký người dùng có kích hoạt bằng OTP (6 số), kích hoạt thành công quay về trang login</t>
-  </si>
-  <si>
-    <t>1. Kích vào nút "Bắt đầu" của Trang Intro (tùy mỗi nhóm sẽ khác nhau) để chuyển qua trang login, nếu đã login rồi thì chuyển đến trang Main. Nếu chưa có tài khoản thì thực hiện chức năng Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yêu cầu: Nhóm tối thiểu 5 và tối đa 10 thanh viên tự chọn, Phân công nhiệm vụ mỗi thành viên vào sheet "Bang_Phan_Cong_Nhiem_Vu" và phối hợp hoàn thành thử thách bên dưới. Nhóm trưởng tạo 01 Repository trên github để chứa project (API &amp; APP) và add các thành viên nhóm vào, mỗi thành viên phải comment code của mình và commit lên nhánh của mình trong project. Trưởng nhóm sẽ merge lại trên nhóm chính. Giao diện bài tập chỉ là mẫu, các nhóm chọn dữ liệu riêng của mỗi nhóm. Chụp giao diện của nhóm bỏ vào Readme trên github. </t>
-  </si>
-  <si>
-    <t>7. Viết các API sau với Database (Các nhóm tự chọn database riêng tương ứng):</t>
-  </si>
-  <si>
-    <t>API product by category</t>
-  </si>
-  <si>
-    <t>6. Xây dựng chức năng lấy tất cả sản phẩm theo từng category được sắp xếp tăng dần theo giá bán hiển thị dạng lưới (có lazy loading khi kéo xuống cuối màn hình)  với API bên dưới</t>
-  </si>
-  <si>
-    <t>5. Xây dựng chức năng lấy tất cả Category theo chiều ngang với API ở câu 7</t>
-  </si>
-  <si>
     <t>Tự Đánh giá điểm hoàn thành</t>
   </si>
   <si>
@@ -90,19 +96,34 @@
     <t>Thiết kế giao diện Intro, giao diện bottomAppBarr, logic nút bắt đầu, login activity, merge code, tạo repo</t>
   </si>
   <si>
-    <t>https://github.com/AKhoa2109/KiemTraAndroidSangT6.git</t>
+    <t>Châu Văn Thân</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện đăng ký, otp, logic RegisterActivity (activity_register)</t>
+  </si>
+  <si>
+    <t>Quảng Đại Thiện</t>
+  </si>
+  <si>
+    <t>Thiết api, code activity cho giao diện cho đăng ký và otp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,19 +131,348 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,43 +480,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -182,26 +814,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:srcRect b="41987"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3299460" y="0"/>
-          <a:ext cx="2606344" cy="2758440"/>
+          <a:off x="3360420" y="0"/>
+          <a:ext cx="2667000" cy="2758440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -225,27 +853,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11006986-DE3A-452A-B90E-8CEB2F815262}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3329940" y="2727960"/>
-          <a:ext cx="2443417" cy="4503420"/>
+          <a:off x="3390900" y="2727960"/>
+          <a:ext cx="2503805" cy="4503420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -335,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -509,197 +1131,194 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="N3:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="N4" sqref="N4:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="3" spans="14:21" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="14:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="14:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="2" t="s">
+    <row r="3" ht="59.4" customHeight="1" spans="14:21">
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" ht="46.2" customHeight="1" spans="14:21">
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" ht="17.4" customHeight="1" spans="14:21">
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="14:21">
+      <c r="N6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="14:21">
+      <c r="N7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="14:21">
+      <c r="N8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="14:21">
+      <c r="N9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="14:14">
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="14:14">
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14">
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="14:14">
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="N14" t="s">
         <v>11</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N14" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N9:U9"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N5:U5"/>
-    <mergeCell ref="N3:U3"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N7:U7"/>
     <mergeCell ref="N8:U8"/>
-    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="N9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4" customWidth="1"/>
+    <col min="3" max="3" width="21.9" customWidth="1"/>
+    <col min="4" max="4" width="90.4" customWidth="1"/>
+    <col min="5" max="5" width="26.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -707,51 +1326,70 @@
         <v>22110352</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>22110425</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>22110426</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/AKhoa2109/KiemTraAndroidSangT6.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/baitap_project_ST6.xlsx
+++ b/baitap_project_ST6.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Yêu cầu: Nhóm tối thiểu 5 và tối đa 10 thanh viên tự chọn, Phân công nhiệm vụ mỗi thành viên vào sheet "Bang_Phan_Cong_Nhiem_Vu" và phối hợp hoàn thành thử thách bên dưới. Nhóm trưởng tạo 01 Repository trên github để chứa project (API &amp; APP) và add các thành viên nhóm vào, mỗi thành viên phải comment code của mình và commit lên nhánh của mình trong project. Trưởng nhóm sẽ merge lại trên nhóm chính. Giao diện bài tập chỉ là mẫu, các nhóm chọn dữ liệu riêng của mỗi nhóm. Chụp giao diện của nhóm bỏ vào Readme trên github. </t>
   </si>
@@ -93,7 +93,7 @@
     <t>Nguyễn Hoàng Anh Khoa</t>
   </si>
   <si>
-    <t>Thiết kế giao diện Intro, giao diện bottomAppBarr, logic nút bắt đầu, login activity, merge code, tạo repo</t>
+    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repo</t>
   </si>
   <si>
     <t>Châu Văn Thân</t>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>Thiết api, code activity cho giao diện cho đăng ký và otp</t>
+  </si>
+  <si>
+    <t>Nguyễn Lý Hùng</t>
+  </si>
+  <si>
+    <t>Viết API lấy các category theo chiều ngang , viết logic gọi api hiển thị thông tin category lên màn hình, merge code</t>
+  </si>
+  <si>
+    <t>Lê Đình Lộc</t>
+  </si>
+  <si>
+    <t>Viết API lấy thông tin user , gọi api hiển thị thông tin user lên màn hình</t>
+  </si>
+  <si>
+    <t>Võ Văn Nam</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện  màn hình chính, tinh chỉnh bottomAppBar</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Thành</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng lấy tất cả sản phẩm theo từng category được sắp xếp tăng dần theo giá bán hiển thị dạng lưới</t>
+  </si>
+  <si>
+    <t>Huỳnh Thái Toàn</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện đăng nhập và viết API đăng nhập</t>
   </si>
 </sst>
 </file>
@@ -118,7 +148,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +163,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF081B3A"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -581,152 +617,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1146,88 +1183,88 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" ht="59.4" customHeight="1" spans="14:21">
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" ht="46.2" customHeight="1" spans="14:21">
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" ht="17.4" customHeight="1" spans="14:21">
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="14:21">
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="14:21">
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="14:21">
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="14:21">
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="14:14">
       <c r="N10" t="s">
@@ -1277,14 +1314,14 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.4" customWidth="1"/>
     <col min="3" max="3" width="21.9" customWidth="1"/>
-    <col min="4" max="4" width="90.4" customWidth="1"/>
+    <col min="4" max="4" width="108" customWidth="1"/>
     <col min="5" max="5" width="26.3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1360,29 +1397,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>22110337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>22110369</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>22110379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="16.2" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>22110418</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>8</v>
+      </c>
+      <c r="B12">
+        <v>22110436</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/baitap_project_ST6.xlsx
+++ b/baitap_project_ST6.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam3HK2\LapTrinhDiDong\KiemTraGiuaKy\KiemTraAndroidSangT6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
     <sheet name="Bang_Phan_Cong_Nhiem_Vu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -98,6 +93,9 @@
     <t>Nguyễn Hoàng Anh Khoa</t>
   </si>
   <si>
+    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository</t>
+  </si>
+  <si>
     <t>Châu Văn Thân</t>
   </si>
   <si>
@@ -119,7 +117,7 @@
     <t>Lê Đình Lộc</t>
   </si>
   <si>
-    <t>Viết API lấy thông tin user , gọi api hiển thị thông tin user lên màn hình</t>
+    <t>Viết API lấy thông tin user , gọi api hiển thị thông tin user lên màn hình, truyền thông tin user từ login vào main,giúp Thành lấy sản phẩm theo Category, viết logout</t>
   </si>
   <si>
     <t>Võ Văn Nam</t>
@@ -138,16 +136,19 @@
   </si>
   <si>
     <t>Thiết kế giao diện đăng nhập và viết API đăng nhập</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,16 +170,345 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,44 +516,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -245,7 +857,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect b="41987"/>
         <a:stretch>
           <a:fillRect/>
@@ -284,7 +896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -556,12 +1168,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="N3:U14"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -570,153 +1182,155 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="3" spans="14:21" ht="59.4" customHeight="1">
-      <c r="N3" s="4" t="s">
+    <row r="3" ht="59.4" customHeight="1" spans="14:21">
+      <c r="N3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="14:21" ht="46.2" customHeight="1">
-      <c r="N4" s="5" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" ht="46.2" customHeight="1" spans="14:21">
+      <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="14:21" ht="17.399999999999999" customHeight="1">
-      <c r="N5" s="5" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" ht="17.4" customHeight="1" spans="14:21">
+      <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="14:21">
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="14:21">
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="14:21">
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="14:21">
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="14:21">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="14:14">
       <c r="N10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="14:21">
+    <row r="11" spans="14:14">
       <c r="N11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="14:21">
+    <row r="12" spans="14:14">
       <c r="N12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="14:21">
+    <row r="13" spans="14:14">
       <c r="N13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="14:21">
+    <row r="14" spans="14:14">
       <c r="N14" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N8:U8"/>
-    <mergeCell ref="N9:U9"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="N5:U5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:U8"/>
+    <mergeCell ref="N9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="12.4" customWidth="1"/>
+    <col min="3" max="3" width="21.9" customWidth="1"/>
     <col min="4" max="4" width="108" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" customWidth="1"/>
+    <col min="5" max="5" width="26.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -752,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -766,10 +1380,10 @@
         <v>22110425</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -783,10 +1397,10 @@
         <v>22110426</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -800,10 +1414,10 @@
         <v>22110337</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -817,10 +1431,10 @@
         <v>22110369</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -834,16 +1448,16 @@
         <v>22110379</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.2">
+    <row r="11" ht="16.2" spans="1:5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -851,10 +1465,10 @@
         <v>22110418</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -868,10 +1482,10 @@
         <v>22110436</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -879,8 +1493,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/AKhoa2109/KiemTraAndroidSangT6.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/baitap_project_ST6.xlsx
+++ b/baitap_project_ST6.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam3HK2\LapTrinhDiDong\KiemTraGiuaKy\KiemTraAndroidSangT6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
     <sheet name="Bang_Phan_Cong_Nhiem_Vu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,9 +98,6 @@
     <t>Nguyễn Hoàng Anh Khoa</t>
   </si>
   <si>
-    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository</t>
-  </si>
-  <si>
     <t>Châu Văn Thân</t>
   </si>
   <si>
@@ -105,9 +107,6 @@
     <t>Quảng Đại Thiện</t>
   </si>
   <si>
-    <t>Thiết api, code activity cho giao diện cho đăng ký và otp</t>
-  </si>
-  <si>
     <t>Nguyễn Lý Hùng</t>
   </si>
   <si>
@@ -136,19 +135,19 @@
   </si>
   <si>
     <t>Thiết kế giao diện đăng nhập và viết API đăng nhập</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository, giúp Thiện fix lỗi register</t>
+  </si>
+  <si>
+    <t>Thiết kế api, code activity cho giao diện cho đăng ký và otp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,345 +169,16 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -516,253 +186,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -774,68 +205,25 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -857,7 +245,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect b="41987"/>
         <a:stretch>
           <a:fillRect/>
@@ -896,7 +284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1168,12 +556,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N3:U14"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -1182,7 +570,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="3" ht="59.4" customHeight="1" spans="14:21">
+    <row r="3" spans="14:21" ht="59.4" customHeight="1">
       <c r="N3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +582,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" ht="46.2" customHeight="1" spans="14:21">
+    <row r="4" spans="14:21" ht="46.2" customHeight="1">
       <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +594,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" ht="17.4" customHeight="1" spans="14:21">
+    <row r="5" spans="14:21" ht="17.399999999999999" customHeight="1">
       <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1266,71 +654,69 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="14:14">
+    <row r="10" spans="14:21">
       <c r="N10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="14:14">
+    <row r="11" spans="14:21">
       <c r="N11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="14:14">
+    <row r="12" spans="14:21">
       <c r="N12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="14:14">
+    <row r="13" spans="14:21">
       <c r="N13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="14:14">
+    <row r="14" spans="14:21">
       <c r="N14" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N8:U8"/>
+    <mergeCell ref="N9:U9"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="N5:U5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:U8"/>
-    <mergeCell ref="N9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="12.4" customWidth="1"/>
-    <col min="3" max="3" width="21.9" customWidth="1"/>
-    <col min="4" max="4" width="108" customWidth="1"/>
-    <col min="5" max="5" width="26.3" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="110.8984375" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1380,10 +766,10 @@
         <v>22110425</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1397,10 +783,10 @@
         <v>22110426</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1414,10 +800,10 @@
         <v>22110337</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1431,10 +817,10 @@
         <v>22110369</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1448,16 +834,16 @@
         <v>22110379</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="16.2" spans="1:5">
+    <row r="11" spans="1:5" ht="16.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1465,10 +851,10 @@
         <v>22110418</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1482,10 +868,10 @@
         <v>22110436</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1493,9 +879,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://github.com/AKhoa2109/KiemTraAndroidSangT6.git"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/baitap_project_ST6.xlsx
+++ b/baitap_project_ST6.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam3HK2\LapTrinhDiDong\KiemTraGiuaKy\KiemTraAndroidSangT6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
     <sheet name="Bang_Phan_Cong_Nhiem_Vu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -98,6 +93,9 @@
     <t>Nguyễn Hoàng Anh Khoa</t>
   </si>
   <si>
+    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository, giúp Thiện fix lỗi register</t>
+  </si>
+  <si>
     <t>Châu Văn Thân</t>
   </si>
   <si>
@@ -107,6 +105,9 @@
     <t>Quảng Đại Thiện</t>
   </si>
   <si>
+    <t>Thiết kế api, code activity cho giao diện cho đăng ký và otp</t>
+  </si>
+  <si>
     <t>Nguyễn Lý Hùng</t>
   </si>
   <si>
@@ -116,7 +117,7 @@
     <t>Lê Đình Lộc</t>
   </si>
   <si>
-    <t>Viết API lấy thông tin user , gọi api hiển thị thông tin user lên màn hình, truyền thông tin user từ login vào main,giúp Thành lấy sản phẩm theo Category, viết logout</t>
+    <t>Viết API lấy thông tin user , gọi api hiển thị thông tin user lên màn hình, truyền thông tin user từ login vào main,giúp Thành lấy sản phẩm theo Category, viết logout, fix lỗi không lấy password đã lưu để đăng nhập</t>
   </si>
   <si>
     <t>Võ Văn Nam</t>
@@ -135,19 +136,19 @@
   </si>
   <si>
     <t>Thiết kế giao diện đăng nhập và viết API đăng nhập</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện Intro, giao diện bottomAppBar, logic nút bắt đầu, login activity, merge code, tạo repository, giúp Thiện fix lỗi register</t>
-  </si>
-  <si>
-    <t>Thiết kế api, code activity cho giao diện cho đăng ký và otp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,16 +170,345 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,14 +516,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -205,25 +774,68 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -245,7 +857,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect b="41987"/>
         <a:stretch>
           <a:fillRect/>
@@ -284,7 +896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -556,12 +1168,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="N3:U14"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -570,7 +1182,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="3" spans="14:21" ht="59.4" customHeight="1">
+    <row r="3" ht="59.4" customHeight="1" spans="14:21">
       <c r="N3" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +1194,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="14:21" ht="46.2" customHeight="1">
+    <row r="4" ht="46.2" customHeight="1" spans="14:21">
       <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
@@ -594,7 +1206,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="14:21" ht="17.399999999999999" customHeight="1">
+    <row r="5" ht="17.4" customHeight="1" spans="14:21">
       <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,69 +1266,71 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="14:21">
+    <row r="10" spans="14:14">
       <c r="N10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="14:21">
+    <row r="11" spans="14:14">
       <c r="N11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="14:21">
+    <row r="12" spans="14:14">
       <c r="N12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="14:21">
+    <row r="13" spans="14:14">
       <c r="N13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="14:21">
+    <row r="14" spans="14:14">
       <c r="N14" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N8:U8"/>
-    <mergeCell ref="N9:U9"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="N5:U5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:U8"/>
+    <mergeCell ref="N9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" customWidth="1"/>
-    <col min="4" max="4" width="110.8984375" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" customWidth="1"/>
+    <col min="2" max="2" width="12.4" customWidth="1"/>
+    <col min="3" max="3" width="21.9" customWidth="1"/>
+    <col min="4" max="4" width="110.9" customWidth="1"/>
+    <col min="5" max="5" width="26.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -752,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -766,10 +1380,10 @@
         <v>22110425</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -783,10 +1397,10 @@
         <v>22110426</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -800,10 +1414,10 @@
         <v>22110337</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -817,10 +1431,10 @@
         <v>22110369</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -834,16 +1448,16 @@
         <v>22110379</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.2">
+    <row r="11" ht="16.2" spans="1:5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -851,10 +1465,10 @@
         <v>22110418</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -868,10 +1482,10 @@
         <v>22110436</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -879,8 +1493,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/AKhoa2109/KiemTraAndroidSangT6.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>